--- a/Успешный успех.xlsx
+++ b/Успешный успех.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Andrey\Конспекты\Главное Хранилище\ProgerNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00E27A5-F7B2-4A8D-9C80-C749AA47F349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFEA179-6724-4F9F-A5D3-D57718B345FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,7 +875,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00FF99"/>
+      <color rgb="FFB66DFF"/>
       <name val="Rubik SemiBold"/>
       <charset val="204"/>
     </font>
@@ -5464,9 +5464,6 @@
     <xf numFmtId="0" fontId="76" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="72" fillId="130" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5485,49 +5482,22 @@
     <xf numFmtId="0" fontId="73" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="130" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="130" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="130" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="130" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="129" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="129" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="129" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="129" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="57" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="57" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5548,19 +5518,46 @@
     <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="57" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="57" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="130" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="130" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="130" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="130" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="129" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="129" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="129" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="129" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="119" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5592,39 +5589,39 @@
     </xf>
     <xf numFmtId="0" fontId="49" fillId="109" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="130" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="130" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="130" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="130" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="52" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="130" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="130" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="130" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="130" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="52" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5653,19 +5650,22 @@
     <xf numFmtId="0" fontId="75" fillId="129" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="129" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="129" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="129" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="129" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="129" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="129" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="129" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="129" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="77" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6061,11 +6061,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFB66DFF"/>
       <color rgb="FF00FF99"/>
       <color rgb="FF480000"/>
       <color rgb="FF800000"/>
       <color rgb="FFFF00FF"/>
-      <color rgb="FFB66DFF"/>
       <color rgb="FF6900D2"/>
       <color rgb="FFDD69FF"/>
       <color rgb="FF8A31A1"/>
@@ -6447,7 +6447,7 @@
               <a:cs typeface="Rubik SemiBold"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>245</a:t>
+            <a:t>251</a:t>
           </a:fld>
           <a:endParaRPr lang="ru-RU" sz="1600" b="0">
             <a:gradFill>
@@ -10733,7 +10733,7 @@
   <dimension ref="A1:CB39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10772,38 +10772,38 @@
       <c r="CB1" s="266"/>
     </row>
     <row r="2" spans="1:80" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="511" t="s">
+      <c r="A2" s="510" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="511"/>
-      <c r="C2" s="511"/>
-      <c r="D2" s="511"/>
-      <c r="E2" s="512" t="s">
+      <c r="B2" s="510"/>
+      <c r="C2" s="510"/>
+      <c r="D2" s="510"/>
+      <c r="E2" s="511" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="512"/>
-      <c r="G2" s="512"/>
+      <c r="F2" s="511"/>
+      <c r="G2" s="511"/>
       <c r="H2" s="499">
         <v>50</v>
       </c>
       <c r="I2" s="478"/>
       <c r="J2" s="479"/>
       <c r="K2" s="478"/>
-      <c r="M2" s="513" t="s">
+      <c r="M2" s="512" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="513"/>
-      <c r="O2" s="513"/>
+      <c r="N2" s="512"/>
+      <c r="O2" s="512"/>
       <c r="P2" s="502">
         <v>87</v>
       </c>
       <c r="Q2" s="478"/>
       <c r="R2" s="478"/>
       <c r="S2" s="478"/>
-      <c r="U2" s="514" t="s">
+      <c r="U2" s="513" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="514"/>
+      <c r="V2" s="513"/>
       <c r="W2" s="505">
         <v>81</v>
       </c>
@@ -10811,12 +10811,12 @@
       <c r="Y2" s="478"/>
       <c r="Z2" s="478"/>
       <c r="AA2" s="478"/>
-      <c r="AC2" s="513" t="s">
+      <c r="AC2" s="512" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="513"/>
-      <c r="AE2" s="508">
-        <v>27</v>
+      <c r="AD2" s="512"/>
+      <c r="AE2" s="575">
+        <v>33</v>
       </c>
       <c r="AF2" s="478"/>
       <c r="AG2" s="478"/>
@@ -10835,10 +10835,10 @@
       <c r="CB2" s="266"/>
     </row>
     <row r="3" spans="1:80" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="511"/>
-      <c r="B3" s="511"/>
-      <c r="C3" s="511"/>
-      <c r="D3" s="511"/>
+      <c r="A3" s="510"/>
+      <c r="B3" s="510"/>
+      <c r="C3" s="510"/>
+      <c r="D3" s="510"/>
       <c r="E3" s="377" t="s">
         <v>5</v>
       </c>
@@ -10937,11 +10937,11 @@
       <c r="CB3" s="266"/>
     </row>
     <row r="4" spans="1:80" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="509">
+      <c r="B4" s="508">
         <f>H2+P2+W2+AE2+D11+M11+V11+AE11+E20+N20+V20+AF20</f>
-        <v>245</v>
-      </c>
-      <c r="C4" s="509"/>
+        <v>251</v>
+      </c>
+      <c r="C4" s="508"/>
       <c r="E4" s="371"/>
       <c r="F4" s="372"/>
       <c r="G4" s="287">
@@ -11013,8 +11013,8 @@
       <c r="CB4" s="266"/>
     </row>
     <row r="5" spans="1:80" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="509"/>
-      <c r="C5" s="509"/>
+      <c r="B5" s="508"/>
+      <c r="C5" s="508"/>
       <c r="E5" s="287">
         <v>6</v>
       </c>
@@ -11281,13 +11281,13 @@
       <c r="AE7" s="272">
         <v>23</v>
       </c>
-      <c r="AF7" s="372">
+      <c r="AF7" s="272">
         <v>24</v>
       </c>
-      <c r="AG7" s="372">
+      <c r="AG7" s="302">
         <v>25</v>
       </c>
-      <c r="AH7" s="372">
+      <c r="AH7" s="287">
         <v>26</v>
       </c>
       <c r="AI7" s="373">
@@ -11422,37 +11422,37 @@
       <c r="CB10" s="266"/>
     </row>
     <row r="11" spans="1:80" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="510" t="s">
+      <c r="B11" s="509" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="510"/>
+      <c r="C11" s="509"/>
       <c r="D11" s="478"/>
       <c r="E11" s="478"/>
       <c r="F11" s="478"/>
       <c r="G11" s="478"/>
       <c r="H11" s="478"/>
-      <c r="K11" s="510" t="s">
+      <c r="K11" s="509" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="510"/>
+      <c r="L11" s="509"/>
       <c r="M11" s="478"/>
       <c r="N11" s="478"/>
       <c r="O11" s="478"/>
       <c r="P11" s="478"/>
       <c r="Q11" s="478"/>
-      <c r="T11" s="510" t="s">
+      <c r="T11" s="509" t="s">
         <v>16</v>
       </c>
-      <c r="U11" s="510"/>
+      <c r="U11" s="509"/>
       <c r="V11" s="478"/>
       <c r="W11" s="478"/>
       <c r="X11" s="478"/>
       <c r="Y11" s="478"/>
       <c r="Z11" s="478"/>
-      <c r="AC11" s="510" t="s">
+      <c r="AC11" s="509" t="s">
         <v>17</v>
       </c>
-      <c r="AD11" s="510"/>
+      <c r="AD11" s="509"/>
       <c r="AE11" s="478"/>
       <c r="AF11" s="478"/>
       <c r="AG11" s="478"/>
@@ -12056,38 +12056,38 @@
       <c r="CB19" s="266"/>
     </row>
     <row r="20" spans="2:80" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="510" t="s">
+      <c r="B20" s="509" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="510"/>
-      <c r="D20" s="510"/>
+      <c r="C20" s="509"/>
+      <c r="D20" s="509"/>
       <c r="E20" s="478"/>
       <c r="F20" s="478"/>
       <c r="G20" s="478"/>
       <c r="H20" s="478"/>
-      <c r="K20" s="510" t="s">
+      <c r="K20" s="509" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="510"/>
-      <c r="M20" s="510"/>
+      <c r="L20" s="509"/>
+      <c r="M20" s="509"/>
       <c r="N20" s="478"/>
       <c r="O20" s="478"/>
       <c r="P20" s="478"/>
       <c r="Q20" s="478"/>
-      <c r="T20" s="510" t="s">
+      <c r="T20" s="509" t="s">
         <v>20</v>
       </c>
-      <c r="U20" s="510"/>
+      <c r="U20" s="509"/>
       <c r="V20" s="478"/>
       <c r="W20" s="478"/>
       <c r="X20" s="478"/>
       <c r="Y20" s="478"/>
       <c r="Z20" s="478"/>
-      <c r="AC20" s="510" t="s">
+      <c r="AC20" s="509" t="s">
         <v>21</v>
       </c>
-      <c r="AD20" s="510"/>
-      <c r="AE20" s="510"/>
+      <c r="AD20" s="509"/>
+      <c r="AE20" s="509"/>
       <c r="AF20" s="478"/>
       <c r="AG20" s="478"/>
       <c r="AH20" s="478"/>
@@ -12828,8 +12828,8 @@
   </sheetPr>
   <dimension ref="A2:BY44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12907,10 +12907,10 @@
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
-      <c r="H4" s="532">
+      <c r="H4" s="522">
         <v>0.33333333333333298</v>
       </c>
-      <c r="I4" s="532"/>
+      <c r="I4" s="522"/>
       <c r="V4" s="143"/>
       <c r="X4" s="119" t="s">
         <v>28</v>
@@ -13158,10 +13158,10 @@
       <c r="AX13" s="54">
         <v>99</v>
       </c>
-      <c r="BD13" s="538">
+      <c r="BD13" s="516">
         <v>999</v>
       </c>
-      <c r="BE13" s="539"/>
+      <c r="BE13" s="517"/>
     </row>
     <row r="14" spans="1:77" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="24"/>
@@ -13208,10 +13208,10 @@
       <c r="AZ14" s="40">
         <v>90</v>
       </c>
-      <c r="BB14" s="536">
+      <c r="BB14" s="514">
         <v>100</v>
       </c>
-      <c r="BC14" s="537"/>
+      <c r="BC14" s="515"/>
     </row>
     <row r="15" spans="1:77" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="49" t="s">
@@ -13459,10 +13459,10 @@
         <v>31</v>
       </c>
       <c r="P19" s="7"/>
-      <c r="Q19" s="531" t="s">
+      <c r="Q19" s="521" t="s">
         <v>91</v>
       </c>
-      <c r="R19" s="531"/>
+      <c r="R19" s="521"/>
       <c r="S19" s="7"/>
       <c r="AB19" s="139"/>
       <c r="AC19" s="137"/>
@@ -13529,19 +13529,19 @@
       <c r="E21" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="I21" s="534">
+      <c r="I21" s="524">
         <v>1400</v>
       </c>
-      <c r="J21" s="534"/>
-      <c r="L21" s="535" t="s">
+      <c r="J21" s="524"/>
+      <c r="L21" s="525" t="s">
         <v>94</v>
       </c>
-      <c r="M21" s="535"/>
-      <c r="N21" s="535"/>
-      <c r="O21" s="535"/>
-      <c r="P21" s="535"/>
-      <c r="Q21" s="535"/>
-      <c r="R21" s="535"/>
+      <c r="M21" s="525"/>
+      <c r="N21" s="525"/>
+      <c r="O21" s="525"/>
+      <c r="P21" s="525"/>
+      <c r="Q21" s="525"/>
+      <c r="R21" s="525"/>
       <c r="AB21" s="139"/>
       <c r="AC21" s="137"/>
       <c r="AD21" s="137"/>
@@ -13568,15 +13568,15 @@
       <c r="B22" s="12">
         <v>23</v>
       </c>
-      <c r="I22" s="534"/>
-      <c r="J22" s="534"/>
-      <c r="L22" s="535"/>
-      <c r="M22" s="535"/>
-      <c r="N22" s="535"/>
-      <c r="O22" s="535"/>
-      <c r="P22" s="535"/>
-      <c r="Q22" s="535"/>
-      <c r="R22" s="535"/>
+      <c r="I22" s="524"/>
+      <c r="J22" s="524"/>
+      <c r="L22" s="525"/>
+      <c r="M22" s="525"/>
+      <c r="N22" s="525"/>
+      <c r="O22" s="525"/>
+      <c r="P22" s="525"/>
+      <c r="Q22" s="525"/>
+      <c r="R22" s="525"/>
       <c r="AB22" s="139"/>
       <c r="AC22" s="355">
         <v>20</v>
@@ -13630,25 +13630,25 @@
       <c r="AV23" s="138"/>
     </row>
     <row r="24" spans="2:50" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="530">
+      <c r="I24" s="520">
         <v>1000</v>
       </c>
-      <c r="J24" s="530"/>
-      <c r="L24" s="523" t="s">
+      <c r="J24" s="520"/>
+      <c r="L24" s="518" t="s">
         <v>61</v>
       </c>
-      <c r="M24" s="523"/>
-      <c r="N24" s="523"/>
-      <c r="O24" s="523"/>
-      <c r="P24" s="523"/>
-      <c r="Q24" s="523"/>
+      <c r="M24" s="518"/>
+      <c r="N24" s="518"/>
+      <c r="O24" s="518"/>
+      <c r="P24" s="518"/>
+      <c r="Q24" s="518"/>
       <c r="R24" s="119"/>
-      <c r="T24" s="523" t="s">
+      <c r="T24" s="518" t="s">
         <v>68</v>
       </c>
-      <c r="U24" s="523"/>
-      <c r="V24" s="523"/>
-      <c r="W24" s="523"/>
+      <c r="U24" s="518"/>
+      <c r="V24" s="518"/>
+      <c r="W24" s="518"/>
       <c r="AB24" s="139"/>
       <c r="AC24" s="503">
         <v>8</v>
@@ -13676,14 +13676,14 @@
       <c r="AV24" s="138"/>
     </row>
     <row r="25" spans="2:50" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="530"/>
-      <c r="J25" s="530"/>
-      <c r="L25" s="523"/>
-      <c r="M25" s="523"/>
-      <c r="N25" s="523"/>
-      <c r="O25" s="523"/>
-      <c r="P25" s="523"/>
-      <c r="Q25" s="523"/>
+      <c r="I25" s="520"/>
+      <c r="J25" s="520"/>
+      <c r="L25" s="518"/>
+      <c r="M25" s="518"/>
+      <c r="N25" s="518"/>
+      <c r="O25" s="518"/>
+      <c r="P25" s="518"/>
+      <c r="Q25" s="518"/>
       <c r="R25" s="119"/>
       <c r="AB25" s="139"/>
       <c r="AC25" s="137"/>
@@ -13708,17 +13708,17 @@
       <c r="AV25" s="138"/>
     </row>
     <row r="26" spans="2:50" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="T26" s="523" t="s">
+      <c r="T26" s="518" t="s">
         <v>69</v>
       </c>
-      <c r="U26" s="523"/>
-      <c r="V26" s="523"/>
-      <c r="W26" s="523"/>
-      <c r="X26" s="540">
+      <c r="U26" s="518"/>
+      <c r="V26" s="518"/>
+      <c r="W26" s="518"/>
+      <c r="X26" s="519">
         <f>'2024'!B4</f>
         <v>551</v>
       </c>
-      <c r="Y26" s="540"/>
+      <c r="Y26" s="519"/>
       <c r="AB26" s="139"/>
       <c r="AC26" s="356">
         <v>0</v>
@@ -13746,24 +13746,24 @@
       <c r="AV26" s="138"/>
     </row>
     <row r="27" spans="2:50" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I27" s="533">
+      <c r="I27" s="523">
         <v>700</v>
       </c>
-      <c r="J27" s="533"/>
-      <c r="L27" s="523" t="s">
+      <c r="J27" s="523"/>
+      <c r="L27" s="518" t="s">
         <v>62</v>
       </c>
-      <c r="M27" s="523"/>
-      <c r="N27" s="523"/>
-      <c r="O27" s="523"/>
-      <c r="P27" s="523"/>
-      <c r="Q27" s="523"/>
-      <c r="T27" s="523"/>
-      <c r="U27" s="523"/>
-      <c r="V27" s="523"/>
-      <c r="W27" s="523"/>
-      <c r="X27" s="540"/>
-      <c r="Y27" s="540"/>
+      <c r="M27" s="518"/>
+      <c r="N27" s="518"/>
+      <c r="O27" s="518"/>
+      <c r="P27" s="518"/>
+      <c r="Q27" s="518"/>
+      <c r="T27" s="518"/>
+      <c r="U27" s="518"/>
+      <c r="V27" s="518"/>
+      <c r="W27" s="518"/>
+      <c r="X27" s="519"/>
+      <c r="Y27" s="519"/>
       <c r="AB27" s="140"/>
       <c r="AC27" s="141"/>
       <c r="AD27" s="141"/>
@@ -13787,161 +13787,147 @@
       <c r="AV27" s="142"/>
     </row>
     <row r="28" spans="2:50" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="I28" s="533"/>
-      <c r="J28" s="533"/>
-      <c r="L28" s="523"/>
-      <c r="M28" s="523"/>
-      <c r="N28" s="523"/>
-      <c r="O28" s="523"/>
-      <c r="P28" s="523"/>
-      <c r="Q28" s="523"/>
+      <c r="I28" s="523"/>
+      <c r="J28" s="523"/>
+      <c r="L28" s="518"/>
+      <c r="M28" s="518"/>
+      <c r="N28" s="518"/>
+      <c r="O28" s="518"/>
+      <c r="P28" s="518"/>
+      <c r="Q28" s="518"/>
     </row>
     <row r="30" spans="2:50" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I30" s="524">
+      <c r="I30" s="534">
         <v>500</v>
       </c>
-      <c r="J30" s="524"/>
-      <c r="L30" s="523" t="s">
+      <c r="J30" s="534"/>
+      <c r="L30" s="518" t="s">
         <v>63</v>
       </c>
-      <c r="M30" s="523"/>
-      <c r="N30" s="523"/>
-      <c r="O30" s="523"/>
-      <c r="P30" s="523"/>
-      <c r="Q30" s="523"/>
+      <c r="M30" s="518"/>
+      <c r="N30" s="518"/>
+      <c r="O30" s="518"/>
+      <c r="P30" s="518"/>
+      <c r="Q30" s="518"/>
     </row>
     <row r="31" spans="2:50" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I31" s="524"/>
-      <c r="J31" s="524"/>
-      <c r="L31" s="523"/>
-      <c r="M31" s="523"/>
-      <c r="N31" s="523"/>
-      <c r="O31" s="523"/>
-      <c r="P31" s="523"/>
-      <c r="Q31" s="523"/>
+      <c r="I31" s="534"/>
+      <c r="J31" s="534"/>
+      <c r="L31" s="518"/>
+      <c r="M31" s="518"/>
+      <c r="N31" s="518"/>
+      <c r="O31" s="518"/>
+      <c r="P31" s="518"/>
+      <c r="Q31" s="518"/>
     </row>
     <row r="33" spans="9:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I33" s="525">
+      <c r="I33" s="535">
         <v>300</v>
       </c>
-      <c r="J33" s="525"/>
-      <c r="L33" s="523" t="s">
+      <c r="J33" s="535"/>
+      <c r="L33" s="518" t="s">
         <v>76</v>
       </c>
-      <c r="M33" s="523"/>
-      <c r="N33" s="523"/>
-      <c r="O33" s="523"/>
-      <c r="P33" s="523"/>
-      <c r="Q33" s="523"/>
+      <c r="M33" s="518"/>
+      <c r="N33" s="518"/>
+      <c r="O33" s="518"/>
+      <c r="P33" s="518"/>
+      <c r="Q33" s="518"/>
     </row>
     <row r="34" spans="9:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I34" s="525"/>
-      <c r="J34" s="525"/>
-      <c r="L34" s="523"/>
-      <c r="M34" s="523"/>
-      <c r="N34" s="523"/>
-      <c r="O34" s="523"/>
-      <c r="P34" s="523"/>
-      <c r="Q34" s="523"/>
+      <c r="I34" s="535"/>
+      <c r="J34" s="535"/>
+      <c r="L34" s="518"/>
+      <c r="M34" s="518"/>
+      <c r="N34" s="518"/>
+      <c r="O34" s="518"/>
+      <c r="P34" s="518"/>
+      <c r="Q34" s="518"/>
     </row>
     <row r="35" spans="9:20" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="9:20" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="I36" s="526">
+      <c r="I36" s="536">
         <v>200</v>
       </c>
-      <c r="J36" s="527"/>
-      <c r="L36" s="523" t="s">
+      <c r="J36" s="537"/>
+      <c r="L36" s="518" t="s">
         <v>93</v>
       </c>
-      <c r="M36" s="523"/>
-      <c r="N36" s="523"/>
-      <c r="O36" s="523"/>
-      <c r="P36" s="523"/>
-      <c r="Q36" s="523"/>
+      <c r="M36" s="518"/>
+      <c r="N36" s="518"/>
+      <c r="O36" s="518"/>
+      <c r="P36" s="518"/>
+      <c r="Q36" s="518"/>
     </row>
     <row r="37" spans="9:20" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I37" s="528"/>
-      <c r="J37" s="529"/>
-      <c r="L37" s="523"/>
-      <c r="M37" s="523"/>
-      <c r="N37" s="523"/>
-      <c r="O37" s="523"/>
-      <c r="P37" s="523"/>
-      <c r="Q37" s="523"/>
+      <c r="I37" s="538"/>
+      <c r="J37" s="539"/>
+      <c r="L37" s="518"/>
+      <c r="M37" s="518"/>
+      <c r="N37" s="518"/>
+      <c r="O37" s="518"/>
+      <c r="P37" s="518"/>
+      <c r="Q37" s="518"/>
     </row>
     <row r="38" spans="9:20" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="9:20" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="I39" s="515">
+      <c r="I39" s="526">
         <v>100</v>
       </c>
-      <c r="J39" s="516"/>
-      <c r="L39" s="523" t="s">
+      <c r="J39" s="527"/>
+      <c r="L39" s="518" t="s">
         <v>64</v>
       </c>
-      <c r="M39" s="523"/>
-      <c r="N39" s="523"/>
-      <c r="O39" s="523"/>
-      <c r="P39" s="523"/>
+      <c r="M39" s="518"/>
+      <c r="N39" s="518"/>
+      <c r="O39" s="518"/>
+      <c r="P39" s="518"/>
       <c r="Q39" s="119"/>
     </row>
     <row r="40" spans="9:20" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I40" s="517"/>
-      <c r="J40" s="518"/>
-      <c r="L40" s="523"/>
-      <c r="M40" s="523"/>
-      <c r="N40" s="523"/>
-      <c r="O40" s="523"/>
-      <c r="P40" s="523"/>
+      <c r="I40" s="528"/>
+      <c r="J40" s="529"/>
+      <c r="L40" s="518"/>
+      <c r="M40" s="518"/>
+      <c r="N40" s="518"/>
+      <c r="O40" s="518"/>
+      <c r="P40" s="518"/>
       <c r="Q40" s="119"/>
     </row>
     <row r="41" spans="9:20" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="9:20" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="I42" s="519">
+      <c r="I42" s="530">
         <v>0</v>
       </c>
-      <c r="J42" s="520"/>
-      <c r="L42" s="523" t="s">
+      <c r="J42" s="531"/>
+      <c r="L42" s="518" t="s">
         <v>92</v>
       </c>
-      <c r="M42" s="523"/>
-      <c r="N42" s="523"/>
-      <c r="O42" s="523"/>
-      <c r="P42" s="523"/>
-      <c r="Q42" s="523"/>
-      <c r="R42" s="523"/>
-      <c r="S42" s="523"/>
-      <c r="T42" s="523"/>
+      <c r="M42" s="518"/>
+      <c r="N42" s="518"/>
+      <c r="O42" s="518"/>
+      <c r="P42" s="518"/>
+      <c r="Q42" s="518"/>
+      <c r="R42" s="518"/>
+      <c r="S42" s="518"/>
+      <c r="T42" s="518"/>
     </row>
     <row r="43" spans="9:20" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I43" s="521"/>
-      <c r="J43" s="522"/>
-      <c r="L43" s="523"/>
-      <c r="M43" s="523"/>
-      <c r="N43" s="523"/>
-      <c r="O43" s="523"/>
-      <c r="P43" s="523"/>
-      <c r="Q43" s="523"/>
-      <c r="R43" s="523"/>
-      <c r="S43" s="523"/>
-      <c r="T43" s="523"/>
+      <c r="I43" s="532"/>
+      <c r="J43" s="533"/>
+      <c r="L43" s="518"/>
+      <c r="M43" s="518"/>
+      <c r="N43" s="518"/>
+      <c r="O43" s="518"/>
+      <c r="P43" s="518"/>
+      <c r="Q43" s="518"/>
+      <c r="R43" s="518"/>
+      <c r="S43" s="518"/>
+      <c r="T43" s="518"/>
     </row>
     <row r="44" spans="9:20" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="BB14:BC14"/>
-    <mergeCell ref="BD13:BE13"/>
-    <mergeCell ref="L42:T43"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T26:W27"/>
-    <mergeCell ref="X26:Y27"/>
-    <mergeCell ref="I24:J25"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="I27:J28"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="L24:Q25"/>
-    <mergeCell ref="L27:Q28"/>
-    <mergeCell ref="L21:R22"/>
     <mergeCell ref="I39:J40"/>
     <mergeCell ref="I42:J43"/>
     <mergeCell ref="L39:P40"/>
@@ -13951,6 +13937,20 @@
     <mergeCell ref="L33:Q34"/>
     <mergeCell ref="I36:J37"/>
     <mergeCell ref="L36:Q37"/>
+    <mergeCell ref="I24:J25"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="I27:J28"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="L24:Q25"/>
+    <mergeCell ref="L27:Q28"/>
+    <mergeCell ref="L21:R22"/>
+    <mergeCell ref="BB14:BC14"/>
+    <mergeCell ref="BD13:BE13"/>
+    <mergeCell ref="L42:T43"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T26:W27"/>
+    <mergeCell ref="X26:Y27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K16">
@@ -13998,7 +13998,7 @@
   </sheetPr>
   <dimension ref="A1:CB37"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -14035,40 +14035,40 @@
       <c r="CB1" s="266"/>
     </row>
     <row r="2" spans="1:80" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="511" t="s">
+      <c r="A2" s="510" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="511"/>
-      <c r="C2" s="511"/>
-      <c r="D2" s="511"/>
-      <c r="E2" s="542" t="s">
+      <c r="B2" s="510"/>
+      <c r="C2" s="510"/>
+      <c r="D2" s="510"/>
+      <c r="E2" s="541" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="542"/>
-      <c r="G2" s="542"/>
+      <c r="F2" s="541"/>
+      <c r="G2" s="541"/>
       <c r="H2" s="267">
         <v>4</v>
       </c>
       <c r="J2" s="268"/>
-      <c r="M2" s="549" t="s">
+      <c r="M2" s="548" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="549"/>
-      <c r="O2" s="549"/>
+      <c r="N2" s="548"/>
+      <c r="O2" s="548"/>
       <c r="P2" s="269">
         <v>9</v>
       </c>
-      <c r="U2" s="542" t="s">
+      <c r="U2" s="541" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="542"/>
+      <c r="V2" s="541"/>
       <c r="W2" s="267">
         <v>0</v>
       </c>
-      <c r="AC2" s="542" t="s">
+      <c r="AC2" s="541" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="542"/>
+      <c r="AD2" s="541"/>
       <c r="AE2" s="267">
         <v>5</v>
       </c>
@@ -14085,10 +14085,10 @@
       <c r="CB2" s="266"/>
     </row>
     <row r="3" spans="1:80" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="511"/>
-      <c r="B3" s="511"/>
-      <c r="C3" s="511"/>
-      <c r="D3" s="511"/>
+      <c r="A3" s="510"/>
+      <c r="B3" s="510"/>
+      <c r="C3" s="510"/>
+      <c r="D3" s="510"/>
       <c r="E3" s="377" t="s">
         <v>5</v>
       </c>
@@ -14196,11 +14196,11 @@
       <c r="CB3" s="266"/>
     </row>
     <row r="4" spans="1:80" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="548">
+      <c r="B4" s="547">
         <f>H2+P2+W2+AE2+D10+M10+V10+AE10+E18+N18+V18+AF18</f>
         <v>551</v>
       </c>
-      <c r="C4" s="548"/>
+      <c r="C4" s="547"/>
       <c r="E4" s="371">
         <v>1</v>
       </c>
@@ -14285,8 +14285,8 @@
       <c r="CB4" s="266"/>
     </row>
     <row r="5" spans="1:80" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="548"/>
-      <c r="C5" s="548"/>
+      <c r="B5" s="547"/>
+      <c r="C5" s="547"/>
       <c r="E5" s="371">
         <v>8</v>
       </c>
@@ -14697,19 +14697,19 @@
       <c r="CB9" s="266"/>
     </row>
     <row r="10" spans="1:80" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="543" t="s">
+      <c r="B10" s="542" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="543"/>
+      <c r="C10" s="542"/>
       <c r="D10" s="381">
         <v>30</v>
       </c>
       <c r="I10" s="380"/>
       <c r="J10" s="380"/>
-      <c r="K10" s="544" t="s">
+      <c r="K10" s="543" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="544"/>
+      <c r="L10" s="543"/>
       <c r="M10" s="326">
         <v>50</v>
       </c>
@@ -14719,10 +14719,10 @@
       <c r="Q10" s="277"/>
       <c r="R10" s="380"/>
       <c r="S10" s="363"/>
-      <c r="T10" s="545" t="s">
+      <c r="T10" s="544" t="s">
         <v>16</v>
       </c>
-      <c r="U10" s="545"/>
+      <c r="U10" s="544"/>
       <c r="V10" s="278">
         <v>87</v>
       </c>
@@ -14732,10 +14732,10 @@
       <c r="Z10" s="279"/>
       <c r="AA10" s="280"/>
       <c r="AB10" s="281"/>
-      <c r="AC10" s="546" t="s">
+      <c r="AC10" s="545" t="s">
         <v>17</v>
       </c>
-      <c r="AD10" s="546"/>
+      <c r="AD10" s="545"/>
       <c r="AE10" s="446">
         <v>100</v>
       </c>
@@ -15402,11 +15402,11 @@
     </row>
     <row r="18" spans="1:80" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="363"/>
-      <c r="B18" s="547" t="s">
+      <c r="B18" s="546" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="547"/>
-      <c r="D18" s="547"/>
+      <c r="C18" s="546"/>
+      <c r="D18" s="546"/>
       <c r="E18" s="463">
         <v>81</v>
       </c>
@@ -15415,11 +15415,11 @@
       <c r="H18" s="461"/>
       <c r="I18" s="365"/>
       <c r="J18" s="363"/>
-      <c r="K18" s="547" t="s">
+      <c r="K18" s="546" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="547"/>
-      <c r="M18" s="547"/>
+      <c r="L18" s="546"/>
+      <c r="M18" s="546"/>
       <c r="N18" s="461">
         <v>92</v>
       </c>
@@ -15428,10 +15428,10 @@
       <c r="Q18" s="461"/>
       <c r="R18" s="364"/>
       <c r="S18" s="380"/>
-      <c r="T18" s="550" t="s">
+      <c r="T18" s="549" t="s">
         <v>20</v>
       </c>
-      <c r="U18" s="550"/>
+      <c r="U18" s="549"/>
       <c r="V18" s="469">
         <v>60</v>
       </c>
@@ -15441,11 +15441,11 @@
       <c r="Z18" s="470"/>
       <c r="AA18" s="327"/>
       <c r="AB18" s="327"/>
-      <c r="AC18" s="541" t="s">
+      <c r="AC18" s="540" t="s">
         <v>21</v>
       </c>
-      <c r="AD18" s="541"/>
-      <c r="AE18" s="541"/>
+      <c r="AD18" s="540"/>
+      <c r="AE18" s="540"/>
       <c r="AF18" s="454">
         <v>33</v>
       </c>
@@ -16272,17 +16272,17 @@
   <sheetData>
     <row r="1" spans="1:61" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:61" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="561" t="s">
+      <c r="A2" s="558" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="561"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="561"/>
-      <c r="E2" s="559" t="s">
+      <c r="B2" s="558"/>
+      <c r="C2" s="558"/>
+      <c r="D2" s="558"/>
+      <c r="E2" s="556" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="559"/>
-      <c r="G2" s="560"/>
+      <c r="F2" s="556"/>
+      <c r="G2" s="557"/>
       <c r="H2" s="369">
         <v>47</v>
       </c>
@@ -16290,11 +16290,11 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="559" t="s">
+      <c r="M2" s="556" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="559"/>
-      <c r="O2" s="560"/>
+      <c r="N2" s="556"/>
+      <c r="O2" s="557"/>
       <c r="P2" s="369">
         <v>45</v>
       </c>
@@ -16302,10 +16302,10 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="552" t="s">
+      <c r="U2" s="551" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="552"/>
+      <c r="V2" s="551"/>
       <c r="W2" s="29">
         <v>6</v>
       </c>
@@ -16314,10 +16314,10 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
-      <c r="AC2" s="552" t="s">
+      <c r="AC2" s="551" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="552"/>
+      <c r="AD2" s="551"/>
       <c r="AE2" s="29">
         <v>3</v>
       </c>
@@ -16327,10 +16327,10 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:61" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="561"/>
-      <c r="B3" s="561"/>
-      <c r="C3" s="561"/>
-      <c r="D3" s="561"/>
+      <c r="A3" s="558"/>
+      <c r="B3" s="558"/>
+      <c r="C3" s="558"/>
+      <c r="D3" s="558"/>
       <c r="E3" s="148" t="s">
         <v>5</v>
       </c>
@@ -16419,11 +16419,11 @@
       </c>
     </row>
     <row r="4" spans="1:61" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="555">
+      <c r="B4" s="552">
         <f>H2+P2+W2+AE2+D10+L10+T10+AB10+E18+M18+U18+AC18</f>
         <v>145</v>
       </c>
-      <c r="C4" s="556"/>
+      <c r="C4" s="553"/>
       <c r="E4" s="130"/>
       <c r="F4" s="130"/>
       <c r="G4" s="130"/>
@@ -16480,8 +16480,8 @@
       </c>
     </row>
     <row r="5" spans="1:61" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="557"/>
-      <c r="C5" s="558"/>
+      <c r="B5" s="554"/>
+      <c r="C5" s="555"/>
       <c r="E5" s="70">
         <v>2</v>
       </c>
@@ -16652,31 +16652,31 @@
       <c r="AI6" s="236">
         <v>16</v>
       </c>
-      <c r="AK6" s="554" t="s">
+      <c r="AK6" s="550" t="s">
         <v>12</v>
       </c>
-      <c r="AL6" s="554"/>
-      <c r="AM6" s="554"/>
-      <c r="AN6" s="554"/>
-      <c r="AO6" s="554"/>
-      <c r="AP6" s="554"/>
-      <c r="AQ6" s="554"/>
-      <c r="AR6" s="554"/>
-      <c r="AS6" s="554"/>
-      <c r="AT6" s="554"/>
-      <c r="AU6" s="554"/>
-      <c r="AV6" s="554"/>
-      <c r="AW6" s="554"/>
-      <c r="AX6" s="554"/>
-      <c r="AY6" s="554"/>
-      <c r="AZ6" s="554"/>
-      <c r="BA6" s="554"/>
-      <c r="BB6" s="554"/>
-      <c r="BC6" s="554"/>
-      <c r="BD6" s="554"/>
-      <c r="BE6" s="554"/>
-      <c r="BF6" s="554"/>
-      <c r="BG6" s="554"/>
+      <c r="AL6" s="550"/>
+      <c r="AM6" s="550"/>
+      <c r="AN6" s="550"/>
+      <c r="AO6" s="550"/>
+      <c r="AP6" s="550"/>
+      <c r="AQ6" s="550"/>
+      <c r="AR6" s="550"/>
+      <c r="AS6" s="550"/>
+      <c r="AT6" s="550"/>
+      <c r="AU6" s="550"/>
+      <c r="AV6" s="550"/>
+      <c r="AW6" s="550"/>
+      <c r="AX6" s="550"/>
+      <c r="AY6" s="550"/>
+      <c r="AZ6" s="550"/>
+      <c r="BA6" s="550"/>
+      <c r="BB6" s="550"/>
+      <c r="BC6" s="550"/>
+      <c r="BD6" s="550"/>
+      <c r="BE6" s="550"/>
+      <c r="BF6" s="550"/>
+      <c r="BG6" s="550"/>
       <c r="BI6" s="7" t="s">
         <v>58</v>
       </c>
@@ -16766,18 +16766,18 @@
       <c r="AI7" s="236">
         <v>23</v>
       </c>
-      <c r="AK7" s="554" t="s">
+      <c r="AK7" s="550" t="s">
         <v>13</v>
       </c>
-      <c r="AL7" s="554"/>
-      <c r="AM7" s="554"/>
-      <c r="AN7" s="554"/>
-      <c r="AO7" s="554"/>
-      <c r="AP7" s="554"/>
-      <c r="AQ7" s="554"/>
-      <c r="AR7" s="554"/>
-      <c r="AS7" s="554"/>
-      <c r="AT7" s="554"/>
+      <c r="AL7" s="550"/>
+      <c r="AM7" s="550"/>
+      <c r="AN7" s="550"/>
+      <c r="AO7" s="550"/>
+      <c r="AP7" s="550"/>
+      <c r="AQ7" s="550"/>
+      <c r="AR7" s="550"/>
+      <c r="AS7" s="550"/>
+      <c r="AT7" s="550"/>
     </row>
     <row r="8" spans="1:61" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E8" s="85">
@@ -16850,19 +16850,19 @@
       <c r="AI8" s="254">
         <v>30</v>
       </c>
-      <c r="AK8" s="554" t="s">
+      <c r="AK8" s="550" t="s">
         <v>59</v>
       </c>
-      <c r="AL8" s="554"/>
-      <c r="AM8" s="554"/>
-      <c r="AN8" s="554"/>
-      <c r="AO8" s="554"/>
-      <c r="AP8" s="554"/>
-      <c r="AQ8" s="554"/>
-      <c r="AR8" s="554"/>
-      <c r="AS8" s="554"/>
-      <c r="AT8" s="554"/>
-      <c r="AU8" s="554"/>
+      <c r="AL8" s="550"/>
+      <c r="AM8" s="550"/>
+      <c r="AN8" s="550"/>
+      <c r="AO8" s="550"/>
+      <c r="AP8" s="550"/>
+      <c r="AQ8" s="550"/>
+      <c r="AR8" s="550"/>
+      <c r="AS8" s="550"/>
+      <c r="AT8" s="550"/>
+      <c r="AU8" s="550"/>
     </row>
     <row r="9" spans="1:61" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E9" s="77">
@@ -16877,36 +16877,36 @@
       <c r="J9" s="155"/>
       <c r="K9" s="152"/>
       <c r="P9" s="8"/>
-      <c r="AK9" s="554" t="s">
+      <c r="AK9" s="550" t="s">
         <v>79</v>
       </c>
-      <c r="AL9" s="554"/>
-      <c r="AM9" s="554"/>
-      <c r="AN9" s="554"/>
-      <c r="AO9" s="554"/>
-      <c r="AP9" s="554"/>
-      <c r="AQ9" s="554"/>
-      <c r="AR9" s="554"/>
-      <c r="AS9" s="554"/>
-      <c r="AT9" s="554"/>
-      <c r="AU9" s="554"/>
-      <c r="AV9" s="554"/>
-      <c r="AW9" s="554"/>
-      <c r="AX9" s="554"/>
-      <c r="AY9" s="554"/>
-      <c r="AZ9" s="554"/>
-      <c r="BA9" s="554"/>
-      <c r="BB9" s="554"/>
-      <c r="BC9" s="554"/>
-      <c r="BD9" s="554"/>
-      <c r="BE9" s="554"/>
-      <c r="BF9" s="554"/>
+      <c r="AL9" s="550"/>
+      <c r="AM9" s="550"/>
+      <c r="AN9" s="550"/>
+      <c r="AO9" s="550"/>
+      <c r="AP9" s="550"/>
+      <c r="AQ9" s="550"/>
+      <c r="AR9" s="550"/>
+      <c r="AS9" s="550"/>
+      <c r="AT9" s="550"/>
+      <c r="AU9" s="550"/>
+      <c r="AV9" s="550"/>
+      <c r="AW9" s="550"/>
+      <c r="AX9" s="550"/>
+      <c r="AY9" s="550"/>
+      <c r="AZ9" s="550"/>
+      <c r="BA9" s="550"/>
+      <c r="BB9" s="550"/>
+      <c r="BC9" s="550"/>
+      <c r="BD9" s="550"/>
+      <c r="BE9" s="550"/>
+      <c r="BF9" s="550"/>
     </row>
     <row r="10" spans="1:61" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="552" t="s">
+      <c r="B10" s="551" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="552"/>
+      <c r="C10" s="551"/>
       <c r="D10" s="29">
         <v>5</v>
       </c>
@@ -16914,10 +16914,10 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="J10" s="552" t="s">
+      <c r="J10" s="551" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="552"/>
+      <c r="K10" s="551"/>
       <c r="L10" s="29">
         <v>7</v>
       </c>
@@ -16926,10 +16926,10 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="553" t="s">
+      <c r="R10" s="560" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="553"/>
+      <c r="S10" s="560"/>
       <c r="T10" s="194">
         <v>9</v>
       </c>
@@ -16940,10 +16940,10 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-      <c r="Z10" s="553" t="s">
+      <c r="Z10" s="560" t="s">
         <v>17</v>
       </c>
-      <c r="AA10" s="553"/>
+      <c r="AA10" s="560"/>
       <c r="AB10" s="194">
         <v>10</v>
       </c>
@@ -16953,18 +16953,18 @@
       </c>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AK10" s="551" t="s">
+      <c r="AK10" s="559" t="s">
         <v>0</v>
       </c>
-      <c r="AL10" s="551"/>
-      <c r="AM10" s="551"/>
-      <c r="AN10" s="551"/>
-      <c r="AO10" s="551"/>
-      <c r="AP10" s="551">
+      <c r="AL10" s="559"/>
+      <c r="AM10" s="559"/>
+      <c r="AN10" s="559"/>
+      <c r="AO10" s="559"/>
+      <c r="AP10" s="559">
         <f>V10+AD10+G18+O18+W18+AE18</f>
         <v>56</v>
       </c>
-      <c r="AQ10" s="551"/>
+      <c r="AQ10" s="559"/>
     </row>
     <row r="11" spans="1:61" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B11" s="251" t="s">
@@ -17463,11 +17463,11 @@
       <c r="X17" s="201"/>
     </row>
     <row r="18" spans="2:32" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="552" t="s">
+      <c r="B18" s="551" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="552"/>
-      <c r="D18" s="552"/>
+      <c r="C18" s="551"/>
+      <c r="D18" s="551"/>
       <c r="E18" s="29">
         <v>4</v>
       </c>
@@ -17477,11 +17477,11 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="552" t="s">
+      <c r="J18" s="551" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="552"/>
-      <c r="L18" s="552"/>
+      <c r="K18" s="551"/>
+      <c r="L18" s="551"/>
       <c r="M18" s="29">
         <v>1</v>
       </c>
@@ -17491,11 +17491,11 @@
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="552" t="s">
+      <c r="R18" s="551" t="s">
         <v>20</v>
       </c>
-      <c r="S18" s="552"/>
-      <c r="T18" s="552"/>
+      <c r="S18" s="551"/>
+      <c r="T18" s="551"/>
       <c r="U18" s="29">
         <v>7</v>
       </c>
@@ -17505,11 +17505,11 @@
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="552" t="s">
+      <c r="Z18" s="551" t="s">
         <v>21</v>
       </c>
-      <c r="AA18" s="552"/>
-      <c r="AB18" s="552"/>
+      <c r="AA18" s="551"/>
+      <c r="AB18" s="551"/>
       <c r="AC18" s="29">
         <v>1</v>
       </c>
@@ -18017,6 +18017,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AK10:AO10"/>
+    <mergeCell ref="AP10:AQ10"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="Z10:AA10"/>
     <mergeCell ref="AK9:BF9"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AK8:AU8"/>
@@ -18027,16 +18037,6 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="AK6:BG6"/>
     <mergeCell ref="A2:D3"/>
-    <mergeCell ref="AK10:AO10"/>
-    <mergeCell ref="AP10:AQ10"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="Z10:AA10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -18071,17 +18071,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="561" t="s">
+      <c r="A1" s="558" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="561"/>
-      <c r="C1" s="561"/>
-      <c r="D1" s="561"/>
-      <c r="E1" s="552" t="s">
+      <c r="B1" s="558"/>
+      <c r="C1" s="558"/>
+      <c r="D1" s="558"/>
+      <c r="E1" s="551" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="552"/>
-      <c r="G1" s="552"/>
+      <c r="F1" s="551"/>
+      <c r="G1" s="551"/>
       <c r="H1" s="29">
         <v>2</v>
       </c>
@@ -18089,11 +18089,11 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
-      <c r="M1" s="553" t="s">
+      <c r="M1" s="560" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="553"/>
-      <c r="O1" s="553"/>
+      <c r="N1" s="560"/>
+      <c r="O1" s="560"/>
       <c r="P1" s="194">
         <v>13</v>
       </c>
@@ -18101,10 +18101,10 @@
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
-      <c r="U1" s="553" t="s">
+      <c r="U1" s="560" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="553"/>
+      <c r="V1" s="560"/>
       <c r="W1" s="194">
         <v>10</v>
       </c>
@@ -18113,10 +18113,10 @@
       <c r="Z1" s="7"/>
       <c r="AA1" s="7"/>
       <c r="AB1" s="7"/>
-      <c r="AC1" s="552" t="s">
+      <c r="AC1" s="551" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="552"/>
+      <c r="AD1" s="551"/>
       <c r="AE1" s="29">
         <v>3</v>
       </c>
@@ -18145,10 +18145,10 @@
       <c r="BB1" s="7"/>
     </row>
     <row r="2" spans="1:54" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="561"/>
-      <c r="B2" s="561"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="561"/>
+      <c r="A2" s="558"/>
+      <c r="B2" s="558"/>
+      <c r="C2" s="558"/>
+      <c r="D2" s="558"/>
       <c r="E2" s="241" t="s">
         <v>5</v>
       </c>
@@ -18252,11 +18252,11 @@
       <c r="BB2" s="7"/>
     </row>
     <row r="3" spans="1:54" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="555">
+      <c r="B3" s="552">
         <f>H1+P1+W1+AE1+D9+L9+T9+AB9+E17+M17+U17+AC17</f>
         <v>164</v>
       </c>
-      <c r="C3" s="556"/>
+      <c r="C3" s="553"/>
       <c r="E3" s="238"/>
       <c r="F3" s="169"/>
       <c r="G3" s="169"/>
@@ -18343,8 +18343,8 @@
       <c r="BB3" s="7"/>
     </row>
     <row r="4" spans="1:54" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="557"/>
-      <c r="C4" s="558"/>
+      <c r="B4" s="554"/>
+      <c r="C4" s="555"/>
       <c r="E4" s="238">
         <v>3</v>
       </c>
@@ -18815,10 +18815,10 @@
     </row>
     <row r="9" spans="1:54" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="553" t="s">
+      <c r="B9" s="560" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="553"/>
+      <c r="C9" s="560"/>
       <c r="D9" s="194">
         <v>9</v>
       </c>
@@ -18827,10 +18827,10 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="560" t="s">
+      <c r="J9" s="557" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="560"/>
+      <c r="K9" s="557"/>
       <c r="L9" s="369">
         <v>50</v>
       </c>
@@ -18839,10 +18839,10 @@
       <c r="O9" s="1"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="562" t="s">
+      <c r="R9" s="561" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="562"/>
+      <c r="S9" s="561"/>
       <c r="T9" s="116">
         <v>28</v>
       </c>
@@ -18851,10 +18851,10 @@
       <c r="W9" s="1"/>
       <c r="X9" s="16"/>
       <c r="Y9" s="1"/>
-      <c r="Z9" s="562" t="s">
+      <c r="Z9" s="561" t="s">
         <v>17</v>
       </c>
-      <c r="AA9" s="562"/>
+      <c r="AA9" s="561"/>
       <c r="AB9" s="116">
         <v>23</v>
       </c>
@@ -19587,11 +19587,11 @@
     </row>
     <row r="17" spans="1:54" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="B17" s="552" t="s">
+      <c r="B17" s="551" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="552"/>
-      <c r="D17" s="552"/>
+      <c r="C17" s="551"/>
+      <c r="D17" s="551"/>
       <c r="E17" s="29">
         <v>2</v>
       </c>
@@ -19599,11 +19599,11 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="553" t="s">
+      <c r="J17" s="560" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="553"/>
-      <c r="L17" s="553"/>
+      <c r="K17" s="560"/>
+      <c r="L17" s="560"/>
       <c r="M17" s="194">
         <v>15</v>
       </c>
@@ -19611,11 +19611,11 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="552" t="s">
+      <c r="R17" s="551" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="552"/>
-      <c r="T17" s="552"/>
+      <c r="S17" s="551"/>
+      <c r="T17" s="551"/>
       <c r="U17" s="29">
         <v>6</v>
       </c>
@@ -19623,11 +19623,11 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="552" t="s">
+      <c r="Z17" s="551" t="s">
         <v>21</v>
       </c>
-      <c r="AA17" s="552"/>
-      <c r="AB17" s="552"/>
+      <c r="AA17" s="551"/>
+      <c r="AB17" s="551"/>
       <c r="AC17" s="29">
         <v>3</v>
       </c>
@@ -21191,6 +21191,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="Z9:AA9"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="R17:T17"/>
@@ -21200,11 +21205,6 @@
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="A1:D2"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="Z9:AA9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -21231,41 +21231,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:42" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="566" t="s">
+      <c r="A2" s="565" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="566"/>
-      <c r="C2" s="566"/>
-      <c r="D2" s="566"/>
-      <c r="E2" s="552" t="s">
+      <c r="B2" s="565"/>
+      <c r="C2" s="565"/>
+      <c r="D2" s="565"/>
+      <c r="E2" s="551" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="552"/>
+      <c r="F2" s="551"/>
       <c r="G2" s="29">
         <v>5</v>
       </c>
       <c r="H2" s="29"/>
-      <c r="M2" s="552" t="s">
+      <c r="M2" s="551" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="552"/>
+      <c r="N2" s="551"/>
       <c r="O2" s="29">
         <v>7</v>
       </c>
       <c r="P2" s="29"/>
-      <c r="U2" s="552" t="s">
+      <c r="U2" s="551" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="552"/>
+      <c r="V2" s="551"/>
       <c r="W2" s="29">
         <v>3</v>
       </c>
       <c r="X2" s="29"/>
-      <c r="AC2" s="553" t="s">
+      <c r="AC2" s="560" t="s">
         <v>18</v>
       </c>
-      <c r="AD2" s="553"/>
-      <c r="AE2" s="553"/>
+      <c r="AD2" s="560"/>
+      <c r="AE2" s="560"/>
       <c r="AF2" s="194">
         <v>10</v>
       </c>
@@ -21274,10 +21274,10 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:42" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="566"/>
-      <c r="B3" s="566"/>
-      <c r="C3" s="566"/>
-      <c r="D3" s="566"/>
+      <c r="A3" s="565"/>
+      <c r="B3" s="565"/>
+      <c r="C3" s="565"/>
+      <c r="D3" s="565"/>
       <c r="E3" s="247" t="s">
         <v>5</v>
       </c>
@@ -21364,19 +21364,19 @@
       <c r="AI3" s="205" t="s">
         <v>11</v>
       </c>
-      <c r="AN3" s="563" t="s">
+      <c r="AN3" s="562" t="s">
         <v>49</v>
       </c>
-      <c r="AO3" s="563"/>
+      <c r="AO3" s="562"/>
       <c r="AP3" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:42" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="567">
+      <c r="B4" s="566">
         <v>34</v>
       </c>
-      <c r="C4" s="568"/>
+      <c r="C4" s="567"/>
       <c r="E4" s="238"/>
       <c r="F4" s="169">
         <v>1</v>
@@ -21437,17 +21437,17 @@
       <c r="AI4" s="179">
         <v>5</v>
       </c>
-      <c r="AN4" s="564" t="s">
+      <c r="AN4" s="563" t="s">
         <v>51</v>
       </c>
-      <c r="AO4" s="564"/>
+      <c r="AO4" s="563"/>
       <c r="AP4" s="23" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:42" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="569"/>
-      <c r="C5" s="570"/>
+      <c r="B5" s="568"/>
+      <c r="C5" s="569"/>
       <c r="E5" s="238">
         <v>7</v>
       </c>
@@ -21532,10 +21532,10 @@
       <c r="AI5" s="179">
         <v>12</v>
       </c>
-      <c r="AN5" s="565" t="s">
+      <c r="AN5" s="564" t="s">
         <v>53</v>
       </c>
-      <c r="AO5" s="565"/>
+      <c r="AO5" s="564"/>
       <c r="AP5" s="23" t="s">
         <v>54</v>
       </c>
@@ -21798,11 +21798,11 @@
       <c r="AA9" s="250"/>
     </row>
     <row r="10" spans="1:42" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="552" t="s">
+      <c r="B10" s="551" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="552"/>
-      <c r="D10" s="552"/>
+      <c r="C10" s="551"/>
+      <c r="D10" s="551"/>
       <c r="E10" s="29">
         <v>4</v>
       </c>
@@ -21810,22 +21810,22 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="552" t="s">
+      <c r="J10" s="551" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="552"/>
-      <c r="L10" s="552"/>
+      <c r="K10" s="551"/>
+      <c r="L10" s="551"/>
       <c r="M10" s="29">
         <v>4</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="R10" s="552" t="s">
+      <c r="R10" s="551" t="s">
         <v>21</v>
       </c>
-      <c r="S10" s="552"/>
-      <c r="T10" s="552"/>
+      <c r="S10" s="551"/>
+      <c r="T10" s="551"/>
       <c r="U10" s="29">
         <v>1</v>
       </c>
@@ -22392,36 +22392,36 @@
       <c r="CB1" s="266"/>
     </row>
     <row r="2" spans="1:80" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="511" t="s">
+      <c r="A2" s="510" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="511"/>
-      <c r="C2" s="511"/>
-      <c r="D2" s="511"/>
-      <c r="E2" s="542" t="s">
+      <c r="B2" s="510"/>
+      <c r="C2" s="510"/>
+      <c r="D2" s="510"/>
+      <c r="E2" s="541" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="542"/>
-      <c r="G2" s="542"/>
+      <c r="F2" s="541"/>
+      <c r="G2" s="541"/>
       <c r="H2" s="265">
         <v>0</v>
       </c>
       <c r="J2" s="268"/>
-      <c r="M2" s="542" t="s">
+      <c r="M2" s="541" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="542"/>
-      <c r="O2" s="542"/>
+      <c r="N2" s="541"/>
+      <c r="O2" s="541"/>
       <c r="P2" s="269"/>
-      <c r="U2" s="542" t="s">
+      <c r="U2" s="541" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="542"/>
+      <c r="V2" s="541"/>
       <c r="W2" s="267"/>
-      <c r="AC2" s="542" t="s">
+      <c r="AC2" s="541" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="542"/>
+      <c r="AD2" s="541"/>
       <c r="AE2" s="267"/>
       <c r="BH2" s="266"/>
       <c r="BJ2" s="266"/>
@@ -22436,10 +22436,10 @@
       <c r="CB2" s="266"/>
     </row>
     <row r="3" spans="1:80" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="511"/>
-      <c r="B3" s="511"/>
-      <c r="C3" s="511"/>
-      <c r="D3" s="511"/>
+      <c r="A3" s="510"/>
+      <c r="B3" s="510"/>
+      <c r="C3" s="510"/>
+      <c r="D3" s="510"/>
       <c r="E3" s="377" t="s">
         <v>5</v>
       </c>
@@ -22538,11 +22538,11 @@
       <c r="CB3" s="266"/>
     </row>
     <row r="4" spans="1:80" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="572">
+      <c r="B4" s="570">
         <f>H2+P2+W2+AE2+D11+M11+V11+AE11+E20+N20+V20+AF20</f>
         <v>0</v>
       </c>
-      <c r="C4" s="573"/>
+      <c r="C4" s="571"/>
       <c r="E4" s="371"/>
       <c r="F4" s="372"/>
       <c r="G4" s="372"/>
@@ -22606,8 +22606,8 @@
       <c r="CB4" s="266"/>
     </row>
     <row r="5" spans="1:80" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="574"/>
-      <c r="C5" s="575"/>
+      <c r="B5" s="572"/>
+      <c r="C5" s="573"/>
       <c r="E5" s="371">
         <v>5</v>
       </c>
@@ -23023,22 +23023,22 @@
       <c r="CB10" s="266"/>
     </row>
     <row r="11" spans="1:80" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="571" t="s">
+      <c r="B11" s="574" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="571"/>
-      <c r="K11" s="571" t="s">
+      <c r="C11" s="574"/>
+      <c r="K11" s="574" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="571"/>
-      <c r="T11" s="571" t="s">
+      <c r="L11" s="574"/>
+      <c r="T11" s="574" t="s">
         <v>16</v>
       </c>
-      <c r="U11" s="571"/>
-      <c r="AC11" s="571" t="s">
+      <c r="U11" s="574"/>
+      <c r="AC11" s="574" t="s">
         <v>17</v>
       </c>
-      <c r="AD11" s="571"/>
+      <c r="AD11" s="574"/>
       <c r="BH11" s="266"/>
       <c r="BJ11" s="266"/>
       <c r="BL11" s="266"/>
@@ -23637,25 +23637,25 @@
       <c r="CB19" s="266"/>
     </row>
     <row r="20" spans="2:80" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="571" t="s">
+      <c r="B20" s="574" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="571"/>
-      <c r="D20" s="571"/>
-      <c r="K20" s="571" t="s">
+      <c r="C20" s="574"/>
+      <c r="D20" s="574"/>
+      <c r="K20" s="574" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="571"/>
-      <c r="M20" s="571"/>
-      <c r="T20" s="571" t="s">
+      <c r="L20" s="574"/>
+      <c r="M20" s="574"/>
+      <c r="T20" s="574" t="s">
         <v>20</v>
       </c>
-      <c r="U20" s="571"/>
-      <c r="AC20" s="571" t="s">
+      <c r="U20" s="574"/>
+      <c r="AC20" s="574" t="s">
         <v>21</v>
       </c>
-      <c r="AD20" s="571"/>
-      <c r="AE20" s="571"/>
+      <c r="AD20" s="574"/>
+      <c r="AE20" s="574"/>
       <c r="AL20" s="264"/>
       <c r="BH20" s="266"/>
       <c r="BJ20" s="266"/>
@@ -24347,12 +24347,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="A2:D3"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="T11:U11"/>
@@ -24361,6 +24355,12 @@
     <mergeCell ref="K20:M20"/>
     <mergeCell ref="T20:U20"/>
     <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="A2:D3"/>
   </mergeCells>
   <conditionalFormatting sqref="R2">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="between">
